--- a/数据整理/stocks/A股/深证主板/002948-青岛银行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002948-青岛银行.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.34</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.91</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -530,15 +550,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.34</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.91</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -553,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +602,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +642,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>24.50</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.99</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -622,26 +670,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001504</t>
+          <t>005418</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方利淘灵活配置混合C</t>
+          <t>申万菱信量化驱动混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.50</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +708,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005418</t>
+          <t>001504</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万菱信量化驱动混合</t>
+          <t>南方利淘灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002948-青岛银行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002948-青岛银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -743,4 +744,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4295</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002948-青岛银行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002948-青岛银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -838,4 +839,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2691</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002948-青岛银行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002948-青岛银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -933,4 +934,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002948-青岛银行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002948-青岛银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -942,7 +943,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,17 +954,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -973,14 +994,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1137</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.27</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="3">
@@ -989,14 +1084,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4">
@@ -1005,14 +1100,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="5">
@@ -1021,13 +1116,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002948-青岛银行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002948-青岛银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1037,7 +1038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1048,17 +1049,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1068,14 +1089,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3795</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.11</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="3">
@@ -1084,14 +1179,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.27</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="4">
@@ -1100,14 +1195,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="5">
@@ -1116,14 +1211,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="6">
@@ -1132,13 +1227,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002948-青岛银行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002948-青岛银行.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,127 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001351</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010355</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -586,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -637,112 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001183</t>
+          <t>004702</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方利淘灵活配置混合A</t>
+          <t>南方金融主题灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>30.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24.50</t>
+          <t>89.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0591</t>
+          <t>1.3795</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005418</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>申万菱信量化驱动混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001504</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方利淘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +703,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -817,26 +743,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>20.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.87</t>
+          <t>92.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4295</t>
+          <t>1.1137</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -965,7 +891,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1005,26 +931,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.03</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>84.87</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1137</t>
+          <t>0.4295</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1059,7 +985,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1089,36 +1015,112 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004702</t>
+          <t>001183</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方金融主题灵活配置混合</t>
+          <t>南方利淘灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.93</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.81</t>
+          <t>24.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3795</t>
+          <t>0.0591</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001504</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方利淘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1132,128 +1134,126 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.02</v>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>